--- a/loaded_influencer_data/miriammelonnn/miriammelonnn_video.xlsx
+++ b/loaded_influencer_data/miriammelonnn/miriammelonnn_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,1385 +506,1610 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miriammelonnn/video/7489446034385440046</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>564</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Base🫶🏼🤍 love a multi-use product!!🙌🏼 @Maybelline NY
+#basemakeup #skin #glowyskin #maybelline</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6.914893617021277</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.205673758865248</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7092198581560284</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3546099290780142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miriammelonnn/video/7489288802129890606</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9762</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1473</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Makeup is therapy ❤️‍🩹 shadow work has me on an emotional roller coaster 🎢 😭🥲 #healingjourney #spirituality</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>15.27350952673633</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.08912108174554</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1843884449907806</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4609711124769515</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miriammelonnn/video/7489138339086404910</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>883</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Replying to @Ileana 🤎 Lip Combo 💖💋💄
+@Beauty Creations Cosmetics @YSL Beauty</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7.814269535673839</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.474518686296716</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3397508493771235</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7927519818799547</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miriammelonnn/video/7488735758673579310</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C5" t="n">
+        <v>151</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Everyday Makeup✨🫶🏼💖
+@Neutrogena @Laura Mercier @Beauty Creations Cosmetics @makeupbymario</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>13.32263242375602</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.11878009630819</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.203852327447833</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.123595505617978</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7486292820299418923</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>771</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B6" t="n">
+        <v>1071</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Thank you! @Alani Nutrition 💖🥹🫶🏼
+#alani #alaninu #spring #energydrink #dallascontentcreator</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6.349206349206349</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.788982259570495</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5602240896358543</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.09337068160597572</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7486106685749153067</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>537</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B7" t="n">
+        <v>732</v>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Thank you! @Alani Nutrition 💖🥹🫶🏼
+#alani #alaninu #spring #energydrink #dallascontentcreator</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.377049180327869</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.693989071038252</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6830601092896175</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1366120218579235</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7485796446101343534</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>903</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B8" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>God knows I can’t function without “Caffeine” 😅🍦🍊🫶🏼
+@Alani Nutrition
+#alani #spring #caffeine</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5.051449953227316</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.583723105706268</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4677268475210477</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09354536950420954</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7485398478017875246</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>929</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B9" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C9" t="n">
+        <v>84</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>God knows I can’t function without “Caffeine” 😅🍦🍊🫶🏼
+@Alani Nutrition
+#alani #spring #caffeine</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8.262910798122066</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.887323943661972</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3755868544600939</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6572769953051643</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7482798444487265582</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>894</v>
-      </c>
-      <c r="C6" t="n">
-        <v>306</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>59</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Galentines Makeup 💋❤️🍒 follow my IG: miriammelonnn🫶🏼🥰
-@Huda Beauty @Too Faced @LottieLondon</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>35.4586129753915</v>
-      </c>
-      <c r="I6" t="n">
-        <v>34.22818791946309</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.230425055928412</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.599552572706935</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B10" t="n">
+        <v>974</v>
+      </c>
+      <c r="C10" t="n">
+        <v>77</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>We can be besties💖🥰🫶🏼
+#aboutme #springmakeup #beautycontentcreator #spring</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9.44558521560575</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.905544147843943</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.540041067761807</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7186858316221766</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7481343869297184042</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B11" t="n">
         <v>925</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" t="n">
         <v>76</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D11" t="n">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Building brick by brick 🥲💖 my last account was hacked. Ima be more active on IG now. Thank you so much for all the support! 🫶🏼💖</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H11" t="n">
         <v>8.864864864864865</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I11" t="n">
         <v>8.216216216216216</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.6486486486486486</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L11" t="n">
         <v>0.3243243243243243</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7480943503103773998</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
         <v>1234</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C12" t="n">
         <v>427</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D12" t="n">
         <v>22</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>67</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Building brick by brick 🥲💖 my last account was hacked. Ima be more active on IG now. Thank you so much for all the support! 🫶🏼💖</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>36.38573743922204</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>34.60291734197731</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.782820097244733</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L12" t="n">
         <v>5.429497568881685</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7477997060780739886</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B13" t="n">
         <v>1620</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C13" t="n">
         <v>197</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>15</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Trying out “Blonzing” and it’s so cute!🥰 🤎🎀
 would you try it?
 @Huda Beauty @Laura Mercier</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>12.46913580246914</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>12.16049382716049</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.308641975308642</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L13" t="n">
         <v>0.9259259259259258</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7476134087963626798</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B14" t="n">
         <v>4305</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14" t="n">
         <v>42900</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D14" t="n">
         <v>99</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>12000</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Follow my IG: @ miriammelonnn ❤️💋🎀
 #valentinesmakeup #dallascontentcreator #galentines #latinacontentcreator</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>998.815331010453</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>996.5156794425088</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.299651567944251</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L14" t="n">
         <v>278.7456445993031</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7475770024469286186</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B15" t="n">
         <v>1055</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15" t="n">
         <v>300</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D15" t="n">
         <v>8</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>30</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Galentines Makeup💋🎀💜
 @Huda Beauty @Maybelline NY @EXO Cosmetics @realtechniques @IT Cosmetics</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>29.19431279620853</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>28.43601895734597</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.7582938388625593</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L15" t="n">
         <v>2.843601895734597</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7475391294810901802</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B16" t="n">
         <v>1186</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>290</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>23</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Purple Setting Powder💜🎀🙌🏼
 So pretty! @Huda Beauty I’m obsessed!!!
 #purplepowder #settingpowder</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>25.63237774030354</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>24.45193929173693</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.18043844856661</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>1.93929173693086</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-01-09</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7475019827430690091</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B17" t="n">
         <v>42000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>135</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>8</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Some one pinch me 🥹💖 such a dream! Thank you so much!🫶🏼 @Huda Beauty @Too Faced @LAWLESS Beauty</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>0.3476190476190476</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.02619047619047619</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L17" t="n">
         <v>0.01904761904761905</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7472799613385362734</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B18" t="n">
         <v>1646</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>214</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>8</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>17</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>New Years Eve makeup inspo✨🪩🥂🍾🖤
 @Kylie Cosmetics @Huda Beauty @KimChi Chic Beauty @Too Faced</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>13.48724179829891</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>13.00121506682867</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.4860267314702308</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>1.032806804374241</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-01-01</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7472456038952750378</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>1485</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>127</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>16</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Give me more glitter! 🤩 The prettiest all over highlight @LottieLondon ✨🪩🥂🖤
 #holidaymakeup</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>8.888888888888889</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>8.552188552188552</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.3367003367003367</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>1.077441077441077</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7470968836590669102</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B20" t="n">
         <v>5551</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>106</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>5</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Ahh thank you so much @KimChi Chic Beauty for having me! Had so much fun!💖 🥰
 so sad i didn’t get pictures of this look..🥲 going to have to do this look again and take pictures!</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>1.999639704557737</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>1.909565843992074</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.09007386056566384</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L20" t="n">
         <v>0.09007386056566384</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2024-12-21</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7470572565820443950</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B21" t="n">
         <v>9716</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21" t="n">
         <v>162</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D21" t="n">
         <v>7</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>32</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Santa Slay 🎅🏼💋💄
 @Huda Beauty @Armani beauty @pradabeauty @Kylie Cosmetics @LottieLondon</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>1.739398929600659</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>1.667352820090572</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.07204610951008646</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L21" t="n">
         <v>0.3293536434746809</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7470195329263160622</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B22" t="n">
         <v>22900</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>155</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D22" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>20</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Forever a gloss gal 💋💄🎅🏼
 @pradabeauty @Kylie Cosmetics #redlipstick #redlips #lipcombo #holidaymakeup</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H22" t="n">
         <v>0.7205240174672489</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I22" t="n">
         <v>0.6768558951965066</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.04366812227074236</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>0.08733624454148471</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/photo/7469795067989970219</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B23" t="n">
         <v>6678</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>71</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Post that content girl! 🥰💖
 Tysm! @pradabeauty @Lilly Lashes @YSL Beauty @Rare Beauty @Lancôme</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>1.108116202455825</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>1.063192572626535</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.04492362982929021</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L23" t="n">
         <v>0.04492362982929021</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7468710784193924398</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B24" t="n">
         <v>107200</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>182</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>12</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Cool tones for winter🫶🏼❄️⛄️⛸️
 #holidaymakeup #cooltonedmakeup #holidayglam #glittermakeup</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>0.1716417910447761</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>0.1697761194029851</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.001865671641791045</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L24" t="n">
         <v>0.01119402985074627</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2024-12-14</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7467972226973764906</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>325900</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>82</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>8</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>15</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Cool tones for winter🫶🏼❄️⛄️⛸️
 #holidaymakeup #cooltonedmakeup #holidayglam #glittermakeup</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>0.02761583307763118</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I25" t="n">
         <v>0.02516109235961952</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.00245474071801166</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L25" t="n">
         <v>0.004602638846271863</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2024-12-14</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7467626957828803886</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B26" t="n">
         <v>69500</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>97</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>7</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Winter Lip Combo ❄️🤍⛸️
 @Huda Beauty @Charlotte Tilbury
 #winterlipcombo #holidaymakeup #cooltonedmakeup</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H26" t="n">
         <v>0.1453237410071942</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I26" t="n">
         <v>0.139568345323741</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.005755395683453238</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L26" t="n">
         <v>0.01007194244604317</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7467224803225767211</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B27" t="n">
         <v>6216</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>60</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Holiday in the Park @Six Flags was fun and cute!🎄🎅🏼⛄️❤️
 #sixflags #holidays #christmas #dallascontentcreator</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>0.9974259974259974</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I27" t="n">
         <v>0.9652509652509652</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.03217503217503218</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L27" t="n">
         <v>0.03217503217503218</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7466656936373767470</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B28" t="n">
         <v>3876</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>44</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>xoxo💋⛄️
 Christmas looks❄️🥰
 @Huda Beauty @Dolce &amp; Gabbana @Charlotte Tilbury</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>1.238390092879257</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I28" t="n">
         <v>1.135190918472652</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.1031991744066047</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>0.02579979360165119</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7466559755885071662</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B29" t="n">
         <v>18500</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>247</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>56</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Pink Christmas 🎀❄️⛸️🎀
 @Huda Beauty @Maybelline NY @Rare Beauty #wintermakeup #pinkchristmas</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H29" t="n">
         <v>1.345945945945946</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>1.335135135135135</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.01081081081081081</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L29" t="n">
         <v>0.3027027027027027</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-12-6</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7465403861432405290</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B30" t="n">
         <v>20500</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>154</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>16</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Pink Christmas Lip Combo👄❄️🎀⛄️ @Laura Mercier @pradabeauty @Prada
 #wintermakeup</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>0.7560975609756098</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>0.751219512195122</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.004878048780487805</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>0.07804878048780488</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-12-5</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7464999587560901934</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>9226</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>86</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>12</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>8</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Winter Glow Makeup ⛄️🎀❄️⛸️ @Maybelline NY @Huda Beauty @Armani beauty @Tower 28 Beauty</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>1.062215477996965</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>0.9321482766095815</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.1300672013873835</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L31" t="n">
         <v>0.08671146759158899</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-12-4</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7462802639911439662</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B32" t="n">
         <v>2735</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>58</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>8</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>The perfect pink winter lip combo! ❄️🎀⛄️ @Huda Beauty
 Faux Filler gloss: she flirty
 Lip Liner: Pinky Brown</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H32" t="n">
         <v>2.193784277879342</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I32" t="n">
         <v>2.120658135283364</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.07312614259597806</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L32" t="n">
         <v>0.2925045703839123</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-12-2</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7462402726647991598</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>4185</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>66</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>8</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>My favorite fall lip combo🤎
 @Huda Beauty
@@ -1893,1094 +2118,943 @@
 #lipcombo</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>1.600955794504182</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>1.577060931899642</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.02389486260454002</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>0.1911589008363202</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7461087578142281002</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B34" t="n">
         <v>2629</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>304</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>34</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>brown soft glams are my fav🤎
 @ciate.london @Beauty Creations Cosmetics @Armani beauty</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H34" t="n">
         <v>11.82959300114112</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I34" t="n">
         <v>11.56333206542412</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.2662609357170027</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>1.293267402054013</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-11-27</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7460957261834341674</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B35" t="n">
         <v>4882</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>161</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D35" t="n">
         <v>2</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>11</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Fall Lip Combo 🤎☕️🐻🍂
 @Beauty Creations Cosmetics @EXO Cosmetics @Huda Beauty
 #falllipcombo</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H35" t="n">
         <v>3.338795575583777</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>3.297828758705448</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.04096681687832855</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L35" t="n">
         <v>0.225317492830807</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7460583416153558318</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
         <v>5310</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>385</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>7</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>52</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Cozy Fall Glam 🐻🤎☕️
 @Huda Beauty @LAWLESS Beauty @Charlotte Tilbury @EXO Cosmetics</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>7.382297551789077</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I36" t="n">
         <v>7.250470809792843</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1318267419962335</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L36" t="n">
         <v>0.9792843691148776</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-11-20</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/photo/7460330444865670446</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>2683</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>217</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>4</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>34</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Fall Glam 🤎🍂👜✨
 @LAWLESS Beauty @ONE SIZE BEAUTY @Beauty Creations Cosmetics @Huda Beauty</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H37" t="n">
         <v>8.237048080506895</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I37" t="n">
         <v>8.087961237420798</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1490868430860977</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>1.26723816623183</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-11-14</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7460184299384442155</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B38" t="n">
         <v>5074</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>170</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>7</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Holiday sets are here😍🤍🎁🎄 so excited! Thank you! @Huda Beauty @Valentino.Beauty @pradabeauty</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H38" t="n">
         <v>3.429247142294048</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I38" t="n">
         <v>3.350413874655104</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.07883326763894363</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L38" t="n">
         <v>0.1379582183681514</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-11-13</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7459439271078874410</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B39" t="n">
         <v>3842</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>3477</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>24</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>273</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Catrina Makeup 💀🤍🕯️
 #catrinamakeup #diadelosmuertos #skull #skullmakeup #catrina</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H39" t="n">
         <v>91.12441436751692</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I39" t="n">
         <v>90.49973971889641</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.6246746486205101</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L39" t="n">
         <v>7.105674128058304</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-11-6</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7458494287395999022</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B40" t="n">
         <v>543200</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>249</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D40" t="n">
         <v>16</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>21</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Catrina Makeup💀🤍🕯️ in honor of dia de los muertos.
 #diadelosmuertos #catrinamakeup #skull</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>0.04878497790868925</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>0.04583946980854198</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.002945508100147275</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>0.003865979381443299</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-11-5</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7457978624763907370</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B41" t="n">
         <v>4272</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>113</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>6</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>11</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Halloween is Cool! Happy Halloween!🧟‍♀️🩵🍫❤️
 #halloweenmakeup #popartzombie #popart</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H41" t="n">
         <v>2.785580524344569</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>2.645131086142322</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.1404494382022472</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L41" t="n">
         <v>0.2574906367041198</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-11-1</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7457581382404082990</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B42" t="n">
         <v>8800</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>195</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D42" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>10</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Pop Art Zombie 🩵❤️🧟‍♀️
 #halloweenlook #popartzombie #popart #popartmakeup #halloweenmakeup</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H42" t="n">
         <v>2.238636363636363</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>2.215909090909091</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.02272727272727273</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L42" t="n">
         <v>0.1136363636363636</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-10-31</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7456865422927760682</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B43" t="n">
         <v>1914</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>195</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D43" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>10</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Pop Art Zombie 🩵❤️🧟‍♀️
 #halloweenlook #popartzombie #popart #popartmakeup #halloweenmakeup</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H43" t="n">
         <v>10.29258098223615</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I43" t="n">
         <v>10.18808777429467</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.1044932079414838</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L43" t="n">
         <v>0.522466039707419</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-10-31</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7454610527474568490</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B44" t="n">
         <v>5710</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>220</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>86</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Alien Girl 💖🛸
 #alienmakeup #alien #halloweencostume #halloweenmakeup #halloweenmakeuplook</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>3.922942206654991</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>3.852889667250438</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.07005253940455342</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>1.506129597197898</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-10-30</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7454272100682108206</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B45" t="n">
         <v>5515</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>274</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D45" t="n">
         <v>13</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>29</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>I always feel like somebody’s watching me🤡🎈 @Mehron Makeup #clownmakeup</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H45" t="n">
         <v>5.203989120580236</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I45" t="n">
         <v>4.968268359020852</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.2357207615593835</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L45" t="n">
         <v>0.5258386219401632</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-10-29</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7450663746776665387</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B46" t="n">
         <v>1798</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>315</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D46" t="n">
         <v>12</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>30</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Dont fall asleep…🤡🎈
 #clownmakeup #clown #halloweentransition #halloweenmakeup</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H46" t="n">
         <v>18.18687430478309</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I46" t="n">
         <v>17.5194660734149</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.6674082313681869</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L46" t="n">
         <v>1.668520578420467</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7450158552657808682</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B47" t="n">
         <v>3274</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47" t="n">
         <v>349</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D47" t="n">
         <v>21</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>29</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Clown Makeup🤡🎈
 #clownmakeup #clown #halloweencostume #halloweenmakeup</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>11.30116065974343</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I47" t="n">
         <v>10.65974343310935</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.6414172266340867</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L47" t="n">
         <v>0.885766646304215</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-10-25</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7449818198922333486</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B48" t="n">
         <v>2569</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48" t="n">
         <v>39</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>4</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>1</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Lets open PR💄📦🎀 thank you to all the brands that send me PR so grateful🥹🫶🏼
 @Lancôme @EXO Cosmetics</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>1.673803036200856</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I48" t="n">
         <v>1.518100428182172</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.1557026080186843</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L48" t="n">
         <v>0.03892565200467107</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-10-24</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7449119416442162474</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B49" t="n">
         <v>1315</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49" t="n">
         <v>96</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D49" t="n">
         <v>4</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>7</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Remove my Halloween makeup with me 🫧💦🎀 @Bliss World #halloweenmakeupremoval #halloweenmakeup</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>7.604562737642586</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I49" t="n">
         <v>7.300380228136882</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.3041825095057034</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L49" t="n">
         <v>0.532319391634981</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-10-23</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7448068000860900654</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B50" t="n">
         <v>2587</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C50" t="n">
         <v>167</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D50" t="n">
         <v>4</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>51</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Fairy Makeup 🧚🏼✨🤎
 @ONE SIZE BEAUTY @Mehron Makeup @Rare Beauty @Beauty Creations Cosmetics</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>6.609972941631233</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I50" t="n">
         <v>6.455353691534596</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.154619250096637</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L50" t="n">
         <v>1.971395438732122</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-10-22</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miriammelonnn/video/7447931524139191595</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B51" t="n">
         <v>1304</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>172</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>14</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>27</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>She was a fairy 🧚🏼✨🌿
 #fairymakeup #fairy #halloweencostume #halloweenlook #halloweenmakeup</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H51" t="n">
         <v>14.2638036809816</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I51" t="n">
         <v>13.19018404907975</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>1.073619631901841</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L51" t="n">
         <v>2.070552147239264</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-10-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miriammelonnn/video/7447561842513202474</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C48" t="n">
-        <v>857</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>238</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Vampire Makeup tutorial🩸🦇🖤 @Mehron Makeup @KVD Vegan Beauty @Too Faced @Huda Beauty</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>55.47680412371135</v>
-      </c>
-      <c r="I48" t="n">
-        <v>55.21907216494846</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2577319587628866</v>
-      </c>
-      <c r="L48" t="n">
-        <v>15.33505154639175</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2024-10-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miriammelonnn/video/7446822801673047339</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2116</v>
-      </c>
-      <c r="C49" t="n">
-        <v>68</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>12</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Vampire Makeup tutorial🩸🦇🖤 @Mehron Makeup @KVD Vegan Beauty @Too Faced @Huda Beauty</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3.260869565217391</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.213610586011342</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.04725897920604915</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.5671077504725899</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-10-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miriammelonnn/video/7446447325469216046</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1041</v>
-      </c>
-      <c r="C50" t="n">
-        <v>263</v>
-      </c>
-      <c r="D50" t="n">
-        <v>6</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>96</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Voodoo Doll📍❤️‍🩹🎀
-@Rare Beauty @Hard Candy @Mehron Makeup @ColourPop Cosmetics</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>25.84053794428434</v>
-      </c>
-      <c r="I50" t="n">
-        <v>25.26416906820365</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.5763688760806917</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9.221902017291066</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-10-16</t>
         </is>
       </c>
     </row>
